--- a/machines/HOME_APPLIANCES.xlsx
+++ b/machines/HOME_APPLIANCES.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upecnumerique.sharepoint.com/sites/SIRIUS-Siriusing2-EcoTracer/Documents partages/Sirius ing2 - Eco Tracer/livrable  équipe pédagogique/ing 2/r1/Spike1/Structured Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Data\sirius-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{7D3097D7-6CE6-4F40-8646-88316F0F54DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF08EDAB-91BF-45F0-B94F-AA89E2B7C7B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A1F198-3F42-4227-AC2A-1209FE403DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F626A89-F277-4933-8CBA-E2CDF1C99A82}"/>
   </bookViews>
   <sheets>
     <sheet name="text" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="153">
   <si>
     <t>Device</t>
   </si>
@@ -284,9 +273,6 @@
     <t>Dehumidifier</t>
   </si>
   <si>
-    <t>https://i.ibb.co/67HmgLQL/dehumidifier.png</t>
-  </si>
-  <si>
     <t>Air Purifier</t>
   </si>
   <si>
@@ -335,12 +321,6 @@
     <t>https://i.ibb.co/fYMX8GwN/stand-mixer.png</t>
   </si>
   <si>
-    <t>Coffe Grinder</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/v6BCNVsD/coffee-grinder.png</t>
-  </si>
-  <si>
     <t>Grill</t>
   </si>
   <si>
@@ -351,13 +331,168 @@
   </si>
   <si>
     <t>https://i.ibb.co/DfMNRX8D/lighting.png</t>
+  </si>
+  <si>
+    <t>Baking Pan</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>Control Panel</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>Clean Water Tank</t>
+  </si>
+  <si>
+    <t>Dirty Water Tank</t>
+  </si>
+  <si>
+    <t>Rotating Brushes</t>
+  </si>
+  <si>
+    <t>Fabric</t>
+  </si>
+  <si>
+    <t>Rubber</t>
+  </si>
+  <si>
+    <t>Handle</t>
+  </si>
+  <si>
+    <t>Boiler</t>
+  </si>
+  <si>
+    <t>Hose</t>
+  </si>
+  <si>
+    <t>Steam Nozzle</t>
+  </si>
+  <si>
+    <t>Evaporator Coil</t>
+  </si>
+  <si>
+    <t>Condenser Coil</t>
+  </si>
+  <si>
+    <t>Pre-filter</t>
+  </si>
+  <si>
+    <t>Polyester</t>
+  </si>
+  <si>
+    <t>HEPA Filter</t>
+  </si>
+  <si>
+    <t>Glass Fiber</t>
+  </si>
+  <si>
+    <t>Activated Carbon Filter</t>
+  </si>
+  <si>
+    <t>Carbon Fiber</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Anode</t>
+  </si>
+  <si>
+    <t>Thermostat</t>
+  </si>
+  <si>
+    <t>Outer Casing</t>
+  </si>
+  <si>
+    <t>Protective Grill</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Oscillator</t>
+  </si>
+  <si>
+    <t>Interior Walls</t>
+  </si>
+  <si>
+    <t>Exterior Casing</t>
+  </si>
+  <si>
+    <t>Heating Plate</t>
+  </si>
+  <si>
+    <t>Drip Tray</t>
+  </si>
+  <si>
+    <t>Inner Pot</t>
+  </si>
+  <si>
+    <t>Lid</t>
+  </si>
+  <si>
+    <t>Lid Seal</t>
+  </si>
+  <si>
+    <t>Bowl</t>
+  </si>
+  <si>
+    <t>Drive Shaft</t>
+  </si>
+  <si>
+    <t>Beater</t>
+  </si>
+  <si>
+    <t>Whisk</t>
+  </si>
+  <si>
+    <t>Dough Hook</t>
+  </si>
+  <si>
+    <t>Coffee Grinder</t>
+  </si>
+  <si>
+    <t>Grinding Burrs</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>LED Bulb</t>
+  </si>
+  <si>
+    <t>Electronic Circuit</t>
+  </si>
+  <si>
+    <t>Diffuser</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/67HmgLQL/dehumidifier.png
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/v6BCNVsD/coffee-grinder.png
+</t>
+  </si>
+  <si>
+    <t>Basket</t>
+  </si>
+  <si>
+    <t>Drawer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,7 +933,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -842,21 +977,27 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -884,12 +1025,13 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="42" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -915,7 +1057,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1211,21 +1353,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1673678D-D606-4238-B01C-85BA580F3F3C}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1261,11 +1403,11 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -1275,9 +1417,9 @@
         <v>1250</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -1287,9 +1429,9 @@
         <v>250</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -1301,9 +1443,9 @@
         <v>1500</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -1313,9 +1455,9 @@
         <v>750</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1327,9 +1469,9 @@
         <v>1250</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -1339,9 +1481,9 @@
         <v>750</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -1351,9 +1493,9 @@
         <v>250</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1369,11 +1511,11 @@
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -1383,9 +1525,9 @@
         <v>750</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>22</v>
@@ -1397,9 +1539,9 @@
         <v>250</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -1409,9 +1551,9 @@
         <v>150</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -1421,9 +1563,9 @@
         <v>75</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1439,11 +1581,11 @@
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>26</v>
@@ -1455,9 +1597,9 @@
         <v>250</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -1467,9 +1609,9 @@
         <v>750</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -1479,9 +1621,9 @@
         <v>75</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -1497,11 +1639,11 @@
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>30</v>
@@ -1513,9 +1655,9 @@
         <v>150</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -1531,11 +1673,11 @@
       <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>35</v>
@@ -1547,9 +1689,9 @@
         <v>75</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -1559,9 +1701,9 @@
         <v>35</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -1571,9 +1713,9 @@
         <v>35</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
@@ -1589,11 +1731,11 @@
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -1603,9 +1745,9 @@
         <v>250</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>42</v>
@@ -1617,9 +1759,9 @@
         <v>250</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
@@ -1635,11 +1777,11 @@
       <c r="E28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -1649,9 +1791,9 @@
         <v>750</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -1663,9 +1805,9 @@
         <v>150</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>47</v>
       </c>
@@ -1681,11 +1823,11 @@
       <c r="E31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -1695,9 +1837,9 @@
         <v>250</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" t="s">
@@ -1707,9 +1849,9 @@
         <v>150</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>49</v>
@@ -1721,9 +1863,9 @@
         <v>250</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" t="s">
@@ -1733,9 +1875,9 @@
         <v>150</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
@@ -1751,11 +1893,11 @@
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>54</v>
@@ -1767,9 +1909,9 @@
         <v>250</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" t="s">
@@ -1779,9 +1921,9 @@
         <v>150</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>55</v>
       </c>
@@ -1797,11 +1939,11 @@
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>57</v>
@@ -1813,9 +1955,9 @@
         <v>250</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" t="s">
@@ -1825,9 +1967,9 @@
         <v>150</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
@@ -1843,11 +1985,11 @@
       <c r="E42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" t="s">
@@ -1857,9 +1999,9 @@
         <v>150</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
         <v>30</v>
@@ -1871,9 +2013,9 @@
         <v>75</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>61</v>
       </c>
@@ -1889,11 +2031,11 @@
       <c r="E45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" t="s">
@@ -1903,9 +2045,9 @@
         <v>75</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" t="s">
@@ -1915,9 +2057,9 @@
         <v>35</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
         <v>30</v>
@@ -1929,9 +2071,9 @@
         <v>75</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>65</v>
       </c>
@@ -1947,11 +2089,11 @@
       <c r="E49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" t="s">
@@ -1961,9 +2103,9 @@
         <v>1250</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" t="s">
@@ -1973,9 +2115,9 @@
         <v>250</v>
       </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>67</v>
@@ -1987,9 +2129,9 @@
         <v>750</v>
       </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" t="s">
@@ -1999,9 +2141,9 @@
         <v>250</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>68</v>
       </c>
@@ -2017,11 +2159,11 @@
       <c r="E54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>57</v>
@@ -2033,9 +2175,9 @@
         <v>750</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" t="s">
@@ -2045,9 +2187,9 @@
         <v>250</v>
       </c>
       <c r="E56" s="3"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>70</v>
       </c>
@@ -2063,11 +2205,11 @@
       <c r="E57" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>26</v>
@@ -2079,9 +2221,9 @@
         <v>150</v>
       </c>
       <c r="E58" s="3"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" t="s">
@@ -2091,9 +2233,9 @@
         <v>250</v>
       </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" t="s">
@@ -2103,150 +2245,2040 @@
         <v>150</v>
       </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1" t="s">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>73</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <v>450</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62">
+        <v>35</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>300</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64">
+        <v>65</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3"/>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>120</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>185</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>225</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68">
+        <v>850</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69">
+        <v>750</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70">
+        <v>80</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" t="s">
+        <v>105</v>
+      </c>
+      <c r="D71">
+        <v>15</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="3"/>
+      <c r="B72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72">
+        <v>350</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F62" t="s">
+      <c r="B77" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>450</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78">
+        <v>25</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <v>120</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80">
+        <v>30</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82">
+        <v>350</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83">
+        <v>75</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84">
+        <v>15</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F63" t="s">
+      <c r="B85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85">
+        <v>450</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="3"/>
+      <c r="B86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>450</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87">
+        <v>180</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88">
+        <v>75</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>250</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90">
+        <v>350</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3"/>
+      <c r="B91" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91">
+        <v>850</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="3"/>
+      <c r="B92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>450</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F64" t="s">
+      <c r="B93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93">
+        <v>350</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="3"/>
+      <c r="B94" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94">
+        <v>500</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <v>150</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96">
+        <v>25</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97">
+        <v>200</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" t="s">
+        <v>109</v>
+      </c>
+      <c r="D98">
+        <v>150</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="3"/>
+      <c r="B99" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99">
+        <v>75</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="3"/>
+      <c r="B100" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100">
+        <v>650</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F65" t="s">
+      <c r="B101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101">
+        <v>950</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102">
+        <v>350</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3"/>
+      <c r="B103" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>450</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="3"/>
+      <c r="B104" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104">
+        <v>450</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
+      <c r="B105" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105">
+        <v>200</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="3"/>
+      <c r="B106" t="s">
+        <v>59</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106">
+        <v>500</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="3"/>
+      <c r="B107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" t="s">
+        <v>50</v>
+      </c>
+      <c r="D107">
+        <v>1200</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="3"/>
+      <c r="B108" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108">
+        <v>75</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1" t="s">
+      <c r="B109" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109">
+        <v>50</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F66" t="s">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="3"/>
+      <c r="B110" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110">
+        <v>150</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="3"/>
+      <c r="B111" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111">
+        <v>250</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="3"/>
+      <c r="B112" t="s">
+        <v>86</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112">
+        <v>180</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="3"/>
+      <c r="B113" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>150</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="3"/>
+      <c r="B114" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114">
+        <v>200</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="3"/>
+      <c r="B115" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" t="s">
+        <v>50</v>
+      </c>
+      <c r="D115">
+        <v>850</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="3"/>
+      <c r="B116" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116">
+        <v>75</v>
+      </c>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1" t="s">
+      <c r="B117" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117">
+        <v>5000</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F67" t="s">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="3"/>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118">
+        <v>1200</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119">
+        <v>450</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" t="s">
+        <v>103</v>
+      </c>
+      <c r="D120">
+        <v>150</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="3"/>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121">
+        <v>250</v>
+      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122">
+        <v>50</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123">
+        <v>25</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="3"/>
+      <c r="B124" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124">
+        <v>3000</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1" t="s">
+      <c r="B125" t="s">
+        <v>71</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125">
+        <v>250</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F68" t="s">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="3"/>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126">
+        <v>350</v>
+      </c>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>200</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128">
+        <v>250</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="3"/>
+      <c r="B129" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>50</v>
+      </c>
+      <c r="D129">
+        <v>450</v>
+      </c>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="3"/>
+      <c r="B130" t="s">
+        <v>104</v>
+      </c>
+      <c r="C130" t="s">
+        <v>50</v>
+      </c>
+      <c r="D130">
+        <v>50</v>
+      </c>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131">
+        <v>75</v>
+      </c>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132">
+        <v>50</v>
+      </c>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1" t="s">
+      <c r="B133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133">
+        <v>1500</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F69" t="s">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134">
+        <v>450</v>
+      </c>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="3"/>
+      <c r="B135" t="s">
+        <v>116</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135">
+        <v>750</v>
+      </c>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="3"/>
+      <c r="B136" t="s">
+        <v>115</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136">
+        <v>650</v>
+      </c>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="3"/>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137">
+        <v>2500</v>
+      </c>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="3"/>
+      <c r="B138" t="s">
+        <v>130</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138">
+        <v>1800</v>
+      </c>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="3"/>
+      <c r="B139" t="s">
+        <v>131</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139">
+        <v>5000</v>
+      </c>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="3"/>
+      <c r="B140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140">
+        <v>3000</v>
+      </c>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1" t="s">
+      <c r="B141" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141">
+        <v>1500</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F70" t="s">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" t="s">
+        <v>64</v>
+      </c>
+      <c r="D142">
+        <v>75</v>
+      </c>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143">
+        <v>350</v>
+      </c>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" t="s">
+        <v>103</v>
+      </c>
+      <c r="D144">
+        <v>75</v>
+      </c>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C145" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145">
+        <v>750</v>
+      </c>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" t="s">
+        <v>50</v>
+      </c>
+      <c r="D146">
+        <v>450</v>
+      </c>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="3"/>
+      <c r="B147" t="s">
+        <v>104</v>
+      </c>
+      <c r="C147" t="s">
+        <v>50</v>
+      </c>
+      <c r="D147">
+        <v>60</v>
+      </c>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="3"/>
+      <c r="B148" t="s">
+        <v>133</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148">
+        <v>200</v>
+      </c>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
+      <c r="B149" t="s">
+        <v>134</v>
+      </c>
+      <c r="C149" t="s">
+        <v>41</v>
+      </c>
+      <c r="D149">
+        <v>2500</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F71" t="s">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150">
+        <v>250</v>
+      </c>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" t="s">
+        <v>103</v>
+      </c>
+      <c r="D151">
+        <v>50</v>
+      </c>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C152" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152">
+        <v>950</v>
+      </c>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" t="s">
+        <v>50</v>
+      </c>
+      <c r="D153">
+        <v>550</v>
+      </c>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="3"/>
+      <c r="B154" t="s">
+        <v>104</v>
+      </c>
+      <c r="C154" t="s">
+        <v>50</v>
+      </c>
+      <c r="D154">
+        <v>75</v>
+      </c>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="3"/>
+      <c r="B155" t="s">
+        <v>135</v>
+      </c>
+      <c r="C155" t="s">
+        <v>45</v>
+      </c>
+      <c r="D155">
+        <v>750</v>
+      </c>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="3"/>
+      <c r="B156" t="s">
+        <v>136</v>
+      </c>
+      <c r="C156" t="s">
+        <v>105</v>
+      </c>
+      <c r="D156">
+        <v>50</v>
+      </c>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1" t="s">
+      <c r="B157" t="s">
+        <v>137</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157">
+        <v>450</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F72" t="s">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="3"/>
+      <c r="B158" t="s">
+        <v>71</v>
+      </c>
+      <c r="C158" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158">
+        <v>200</v>
+      </c>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159">
+        <v>350</v>
+      </c>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160">
+        <v>450</v>
+      </c>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="3"/>
+      <c r="B161" t="s">
+        <v>54</v>
+      </c>
+      <c r="C161" t="s">
+        <v>50</v>
+      </c>
+      <c r="D161">
+        <v>750</v>
+      </c>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="3"/>
+      <c r="B162" t="s">
+        <v>135</v>
+      </c>
+      <c r="C162" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162">
+        <v>250</v>
+      </c>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="3"/>
+      <c r="B163" t="s">
+        <v>138</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163">
+        <v>150</v>
+      </c>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="3"/>
+      <c r="B164" t="s">
+        <v>104</v>
+      </c>
+      <c r="C164" t="s">
+        <v>50</v>
+      </c>
+      <c r="D164">
+        <v>75</v>
+      </c>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1" t="s">
+      <c r="B165" t="s">
+        <v>137</v>
+      </c>
+      <c r="C165" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165">
+        <v>1200</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F73" t="s">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="3"/>
+      <c r="B166" t="s">
+        <v>139</v>
+      </c>
+      <c r="C166" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166">
+        <v>350</v>
+      </c>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="3"/>
+      <c r="B167" t="s">
+        <v>140</v>
+      </c>
+      <c r="C167" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167">
+        <v>150</v>
+      </c>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="3"/>
+      <c r="B168" t="s">
+        <v>141</v>
+      </c>
+      <c r="C168" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168">
+        <v>200</v>
+      </c>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169">
+        <v>450</v>
+      </c>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170">
+        <v>550</v>
+      </c>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="3"/>
+      <c r="B171" t="s">
+        <v>54</v>
+      </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171">
+        <v>2500</v>
+      </c>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="3"/>
+      <c r="B172" t="s">
+        <v>104</v>
+      </c>
+      <c r="C172" t="s">
+        <v>50</v>
+      </c>
+      <c r="D172">
+        <v>75</v>
+      </c>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C173" t="s">
+        <v>20</v>
+      </c>
+      <c r="D173">
+        <v>250</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" t="s">
+        <v>41</v>
+      </c>
+      <c r="D174">
+        <v>200</v>
+      </c>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175">
+        <v>150</v>
+      </c>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176">
+        <v>200</v>
+      </c>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C177" t="s">
+        <v>50</v>
+      </c>
+      <c r="D177">
+        <v>250</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178">
+        <v>350</v>
+      </c>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="3"/>
+      <c r="B179" t="s">
+        <v>144</v>
+      </c>
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179">
+        <v>75</v>
+      </c>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="3"/>
+      <c r="B180" t="s">
+        <v>135</v>
+      </c>
+      <c r="C180" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180">
+        <v>50</v>
+      </c>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1" t="s">
+      <c r="B181" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181">
+        <v>1800</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F74" t="s">
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" t="s">
+        <v>64</v>
+      </c>
+      <c r="D182">
         <v>100</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1" t="s">
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183">
+        <v>350</v>
+      </c>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" t="s">
+        <v>103</v>
+      </c>
+      <c r="D184">
+        <v>75</v>
+      </c>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C185" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185">
+        <v>1200</v>
+      </c>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" t="s">
+        <v>50</v>
+      </c>
+      <c r="D186">
+        <v>750</v>
+      </c>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="3"/>
+      <c r="B187" t="s">
+        <v>104</v>
+      </c>
+      <c r="C187" t="s">
+        <v>50</v>
+      </c>
+      <c r="D187">
+        <v>75</v>
+      </c>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="3"/>
+      <c r="B188" t="s">
+        <v>133</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188">
+        <v>250</v>
+      </c>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189">
+        <v>350</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" t="s">
+        <v>50</v>
+      </c>
+      <c r="D190">
+        <v>150</v>
+      </c>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191">
+        <v>25</v>
+      </c>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192">
+        <v>15</v>
+      </c>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" t="s">
+        <v>105</v>
+      </c>
+      <c r="D193">
+        <v>5</v>
+      </c>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C194" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194">
+        <v>50</v>
+      </c>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" t="s">
+        <v>105</v>
+      </c>
+      <c r="D195">
+        <v>10</v>
+      </c>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="3"/>
+      <c r="B196" t="s">
+        <v>147</v>
+      </c>
+      <c r="C196" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196">
+        <v>180</v>
+      </c>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C197" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197">
+        <v>100</v>
+      </c>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198">
+        <v>75</v>
+      </c>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="F42:F44"/>
+  <mergeCells count="147">
+    <mergeCell ref="E181:E188"/>
+    <mergeCell ref="E189:E198"/>
+    <mergeCell ref="E141:E148"/>
+    <mergeCell ref="E149:E156"/>
+    <mergeCell ref="E157:E164"/>
+    <mergeCell ref="E165:E172"/>
+    <mergeCell ref="E173:E180"/>
+    <mergeCell ref="E101:E108"/>
+    <mergeCell ref="E109:E116"/>
+    <mergeCell ref="E117:E124"/>
+    <mergeCell ref="E125:E132"/>
+    <mergeCell ref="E133:E140"/>
+    <mergeCell ref="F61:F72"/>
+    <mergeCell ref="E61:E72"/>
+    <mergeCell ref="E77:E84"/>
+    <mergeCell ref="E85:E92"/>
+    <mergeCell ref="E93:E100"/>
+    <mergeCell ref="A61:A72"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="F157:F164"/>
+    <mergeCell ref="F165:F172"/>
+    <mergeCell ref="F173:F180"/>
+    <mergeCell ref="F181:F188"/>
+    <mergeCell ref="F189:F198"/>
+    <mergeCell ref="F117:F124"/>
+    <mergeCell ref="F125:F132"/>
+    <mergeCell ref="F133:F140"/>
+    <mergeCell ref="F141:F148"/>
+    <mergeCell ref="F149:F156"/>
+    <mergeCell ref="F77:F84"/>
+    <mergeCell ref="F85:F92"/>
+    <mergeCell ref="F93:F100"/>
+    <mergeCell ref="F101:F108"/>
+    <mergeCell ref="F109:F116"/>
+    <mergeCell ref="A181:A188"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="A189:A198"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="A157:A164"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="A165:A172"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="A173:A180"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="A141:A148"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A149:A156"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="A125:A132"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="A133:A140"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="A101:A108"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A109:A116"/>
+    <mergeCell ref="A117:A124"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A77:A84"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E25:E27"/>
     <mergeCell ref="E49:E53"/>
     <mergeCell ref="E54:E56"/>
     <mergeCell ref="E57:E60"/>
@@ -2263,45 +4295,15 @@
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="E45:E48"/>
     <mergeCell ref="E2:E9"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="F42:F44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2:F9" r:id="rId1" display="https://i.ibb.co/xhzWFBM/fridge.png" xr:uid="{85406EC9-6315-404C-9DF7-EEAB752AB597}"/>
@@ -2320,31 +4322,27 @@
     <hyperlink ref="F54:F56" r:id="rId14" display="https://i.ibb.co/JW0kjNmS/heater.png" xr:uid="{79E36971-E722-4BB3-A025-8B28FB5F03F2}"/>
     <hyperlink ref="F57:F60" r:id="rId15" display="https://i.ibb.co/BFTs4Qz/blender.png" xr:uid="{8FC78485-6E05-4B1F-935D-2302DD3EB408}"/>
     <hyperlink ref="F61" r:id="rId16" xr:uid="{F89E56F1-6D9A-4F68-8E0F-E4563AA4F8BA}"/>
+    <hyperlink ref="F77" r:id="rId17" xr:uid="{26775B11-5C3B-401F-A382-F1D0A546C850}"/>
+    <hyperlink ref="F85" r:id="rId18" xr:uid="{359AA652-BCF3-4AB5-9EFB-415788F99A52}"/>
+    <hyperlink ref="F93" r:id="rId19" xr:uid="{B69807AE-1F17-480C-9D5B-19882A64E37C}"/>
+    <hyperlink ref="F101" r:id="rId20" xr:uid="{9F1169DC-7F96-4B23-B963-31A4BB2241D9}"/>
+    <hyperlink ref="F109" r:id="rId21" xr:uid="{5F14EA64-7906-479E-99DD-3E96A8916F92}"/>
+    <hyperlink ref="F117" r:id="rId22" xr:uid="{92FF90AD-0A4E-45C2-A5D5-14FFF9589873}"/>
+    <hyperlink ref="F125" r:id="rId23" xr:uid="{09604F82-330A-46C0-AE0D-1B28F8ED57FA}"/>
+    <hyperlink ref="F133" r:id="rId24" xr:uid="{B365D610-7669-48CD-8951-7895DC148DAF}"/>
+    <hyperlink ref="F141" r:id="rId25" xr:uid="{9D3985AF-D6F3-43E7-9155-E091288C962E}"/>
+    <hyperlink ref="F149" r:id="rId26" xr:uid="{036D8808-2FF0-46C5-AD6C-D0A85B974847}"/>
+    <hyperlink ref="F157" r:id="rId27" xr:uid="{FEA31574-9077-4739-A902-263F1F67A580}"/>
+    <hyperlink ref="F165" r:id="rId28" xr:uid="{FF2B7B13-40F5-486F-A956-3ED20C908BC4}"/>
+    <hyperlink ref="F173" r:id="rId29" xr:uid="{C02A2D4D-91ED-4956-B0A3-EA45CDEBDE73}"/>
+    <hyperlink ref="F181" r:id="rId30" xr:uid="{C78B5957-A0BC-4B47-A350-A839C7C48B18}"/>
+    <hyperlink ref="F189" r:id="rId31" xr:uid="{7F2314B6-F79C-46C4-8A79-85F1FEDF767D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8766d81-4db2-4748-b28e-60c4bf3d33a1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010099946AE2F0418C47A82B85FF594930C1" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="908d29694043a3865d00e9af4bdf5627">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8766d81-4db2-4748-b28e-60c4bf3d33a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4138ec15618bf3d7ec3b989d1cf63e04" ns2:_="">
     <xsd:import namespace="e8766d81-4db2-4748-b28e-60c4bf3d33a1"/>
@@ -2522,14 +4520,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8766d81-4db2-4748-b28e-60c4bf3d33a1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6763E30-5B1A-4C9E-A891-2CE3C7C8C20C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2119D2B0-664A-4D32-BBDD-791FEC8393D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e8766d81-4db2-4748-b28e-60c4bf3d33a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFBCE8C1-CDC5-4BCA-B7A3-6E0B515EEE51}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFBCE8C1-CDC5-4BCA-B7A3-6E0B515EEE51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8766d81-4db2-4748-b28e-60c4bf3d33a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2119D2B0-664A-4D32-BBDD-791FEC8393D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6763E30-5B1A-4C9E-A891-2CE3C7C8C20C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>